--- a/Documentação/Backlog's - Air totem OF.xlsx
+++ b/Documentação/Backlog's - Air totem OF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28243a88645c6949/Área de Trabalho/Documentacao/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{52B1CFEC-2561-42A0-92F9-FBD2A23A9928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F938BB9-553F-4DFA-89A1-0D04CC7DBDBF}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{52B1CFEC-2561-42A0-92F9-FBD2A23A9928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A4C9B1E-C07B-4BF4-9634-625BD7B0DA4E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="479">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -1810,48 +1810,6 @@
     <t>O sistema deve possuir uma tela de cadastro, em que o perfil administrador cadastra outros usuários do sistema.</t>
   </si>
   <si>
-    <t>Tabela sistema</t>
-  </si>
-  <si>
-    <t>Tabela usuario</t>
-  </si>
-  <si>
-    <t>Tabela componentes</t>
-  </si>
-  <si>
-    <t>Tabela alerta</t>
-  </si>
-  <si>
-    <t>Tabela empresa</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Gerente Geral</t>
-  </si>
-  <si>
-    <t>Suporte</t>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>Tela Site Institucional</t>
-  </si>
-  <si>
-    <t>Tela Dashboard Técnica</t>
-  </si>
-  <si>
-    <t>Tela inicial ADM</t>
-  </si>
-  <si>
-    <t>Tela Dashboard Negócios</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>T001</t>
   </si>
   <si>
@@ -1943,6 +1901,471 @@
   </si>
   <si>
     <t>T031</t>
+  </si>
+  <si>
+    <t>US-1</t>
+  </si>
+  <si>
+    <t>US-2</t>
+  </si>
+  <si>
+    <t>US-3</t>
+  </si>
+  <si>
+    <t>US-4</t>
+  </si>
+  <si>
+    <t>US-5</t>
+  </si>
+  <si>
+    <t>US-6</t>
+  </si>
+  <si>
+    <t>US-7</t>
+  </si>
+  <si>
+    <t>US-8</t>
+  </si>
+  <si>
+    <t>US-9</t>
+  </si>
+  <si>
+    <t>US-10</t>
+  </si>
+  <si>
+    <t>US-11</t>
+  </si>
+  <si>
+    <t>US-12</t>
+  </si>
+  <si>
+    <t>US-13</t>
+  </si>
+  <si>
+    <t>US-14</t>
+  </si>
+  <si>
+    <t>US-15</t>
+  </si>
+  <si>
+    <t>US-16</t>
+  </si>
+  <si>
+    <t>US-17</t>
+  </si>
+  <si>
+    <t>US-18</t>
+  </si>
+  <si>
+    <t>US-19</t>
+  </si>
+  <si>
+    <t>US-20</t>
+  </si>
+  <si>
+    <t>US-21</t>
+  </si>
+  <si>
+    <t>US-22</t>
+  </si>
+  <si>
+    <t>US-23</t>
+  </si>
+  <si>
+    <t>US-24</t>
+  </si>
+  <si>
+    <t>US-25</t>
+  </si>
+  <si>
+    <t>US-26</t>
+  </si>
+  <si>
+    <t>US-27</t>
+  </si>
+  <si>
+    <t>US-28</t>
+  </si>
+  <si>
+    <t>US-29</t>
+  </si>
+  <si>
+    <t>US-30</t>
+  </si>
+  <si>
+    <t>US-31</t>
+  </si>
+  <si>
+    <t>LC-1</t>
+  </si>
+  <si>
+    <t>LC-2</t>
+  </si>
+  <si>
+    <t>LC-3</t>
+  </si>
+  <si>
+    <t>LC-4</t>
+  </si>
+  <si>
+    <t>LC-5</t>
+  </si>
+  <si>
+    <t>LC-6</t>
+  </si>
+  <si>
+    <t>LC-7</t>
+  </si>
+  <si>
+    <t>LC-8</t>
+  </si>
+  <si>
+    <t>LC-9</t>
+  </si>
+  <si>
+    <t>LC-10</t>
+  </si>
+  <si>
+    <t>LC-11</t>
+  </si>
+  <si>
+    <t>LC-12</t>
+  </si>
+  <si>
+    <t>LC-13</t>
+  </si>
+  <si>
+    <t>LC-14</t>
+  </si>
+  <si>
+    <t>LC-15</t>
+  </si>
+  <si>
+    <t>LC-16</t>
+  </si>
+  <si>
+    <t>LC-17</t>
+  </si>
+  <si>
+    <t>LC-18</t>
+  </si>
+  <si>
+    <t>LC-19</t>
+  </si>
+  <si>
+    <t>LC-20</t>
+  </si>
+  <si>
+    <t>LC-21</t>
+  </si>
+  <si>
+    <t>LC-22</t>
+  </si>
+  <si>
+    <t>LC-23</t>
+  </si>
+  <si>
+    <t>LC-24</t>
+  </si>
+  <si>
+    <t>LC-25</t>
+  </si>
+  <si>
+    <t>LC-26</t>
+  </si>
+  <si>
+    <t>LC-27</t>
+  </si>
+  <si>
+    <t>LC-28</t>
+  </si>
+  <si>
+    <t>LC-29</t>
+  </si>
+  <si>
+    <t>LC-30</t>
+  </si>
+  <si>
+    <t>LC-31</t>
+  </si>
+  <si>
+    <t>WF-1</t>
+  </si>
+  <si>
+    <t>WF-2</t>
+  </si>
+  <si>
+    <t>WF-3</t>
+  </si>
+  <si>
+    <t>WF-4</t>
+  </si>
+  <si>
+    <t>WF-5</t>
+  </si>
+  <si>
+    <t>WF-6</t>
+  </si>
+  <si>
+    <t>WF-7</t>
+  </si>
+  <si>
+    <t>WF-8</t>
+  </si>
+  <si>
+    <t>WF-9</t>
+  </si>
+  <si>
+    <t>WF-10</t>
+  </si>
+  <si>
+    <t>WF-20</t>
+  </si>
+  <si>
+    <t>WF-21</t>
+  </si>
+  <si>
+    <t>WF-22</t>
+  </si>
+  <si>
+    <t>WF-23</t>
+  </si>
+  <si>
+    <t>WF-24</t>
+  </si>
+  <si>
+    <t>WF-25</t>
+  </si>
+  <si>
+    <t>WF-26</t>
+  </si>
+  <si>
+    <t>WF-27</t>
+  </si>
+  <si>
+    <t>WF-28</t>
+  </si>
+  <si>
+    <t>WF-29</t>
+  </si>
+  <si>
+    <t>WF-30</t>
+  </si>
+  <si>
+    <t>WF-31</t>
+  </si>
+  <si>
+    <t>WF-11</t>
+  </si>
+  <si>
+    <t>WF-12</t>
+  </si>
+  <si>
+    <t>WF-13</t>
+  </si>
+  <si>
+    <t>WF-14</t>
+  </si>
+  <si>
+    <t>WF-15</t>
+  </si>
+  <si>
+    <t>WF-16</t>
+  </si>
+  <si>
+    <t>WF-17</t>
+  </si>
+  <si>
+    <t>WF-18</t>
+  </si>
+  <si>
+    <t>WF-19</t>
+  </si>
+  <si>
+    <t>DER-1</t>
+  </si>
+  <si>
+    <t>DER-2</t>
+  </si>
+  <si>
+    <t>DER-3</t>
+  </si>
+  <si>
+    <t>DER-4</t>
+  </si>
+  <si>
+    <t>DER-5</t>
+  </si>
+  <si>
+    <t>DER-6</t>
+  </si>
+  <si>
+    <t>DER-7</t>
+  </si>
+  <si>
+    <t>DER-8</t>
+  </si>
+  <si>
+    <t>DER-9</t>
+  </si>
+  <si>
+    <t>DER-10</t>
+  </si>
+  <si>
+    <t>DER-11</t>
+  </si>
+  <si>
+    <t>DER-12</t>
+  </si>
+  <si>
+    <t>DER-13</t>
+  </si>
+  <si>
+    <t>DER-14</t>
+  </si>
+  <si>
+    <t>DER-15</t>
+  </si>
+  <si>
+    <t>DER-16</t>
+  </si>
+  <si>
+    <t>DER-17</t>
+  </si>
+  <si>
+    <t>DER-18</t>
+  </si>
+  <si>
+    <t>DER-19</t>
+  </si>
+  <si>
+    <t>DER-20</t>
+  </si>
+  <si>
+    <t>DER-21</t>
+  </si>
+  <si>
+    <t>DER-22</t>
+  </si>
+  <si>
+    <t>DER-23</t>
+  </si>
+  <si>
+    <t>DER-24</t>
+  </si>
+  <si>
+    <t>DER-25</t>
+  </si>
+  <si>
+    <t>DER-26</t>
+  </si>
+  <si>
+    <t>DER-27</t>
+  </si>
+  <si>
+    <t>DER-28</t>
+  </si>
+  <si>
+    <t>DER-29</t>
+  </si>
+  <si>
+    <t>DER-30</t>
+  </si>
+  <si>
+    <t>DER-31</t>
+  </si>
+  <si>
+    <t>CU-1</t>
+  </si>
+  <si>
+    <t>CU-2</t>
+  </si>
+  <si>
+    <t>CU-3</t>
+  </si>
+  <si>
+    <t>CU-4</t>
+  </si>
+  <si>
+    <t>CU-5</t>
+  </si>
+  <si>
+    <t>CU-6</t>
+  </si>
+  <si>
+    <t>CU-7</t>
+  </si>
+  <si>
+    <t>CU-8</t>
+  </si>
+  <si>
+    <t>CU-9</t>
+  </si>
+  <si>
+    <t>CU-10</t>
+  </si>
+  <si>
+    <t>CU-11</t>
+  </si>
+  <si>
+    <t>CU-12</t>
+  </si>
+  <si>
+    <t>CU-13</t>
+  </si>
+  <si>
+    <t>CU-14</t>
+  </si>
+  <si>
+    <t>CU-15</t>
+  </si>
+  <si>
+    <t>CU-16</t>
+  </si>
+  <si>
+    <t>CU-17</t>
+  </si>
+  <si>
+    <t>CU-18</t>
+  </si>
+  <si>
+    <t>CU-19</t>
+  </si>
+  <si>
+    <t>CU-20</t>
+  </si>
+  <si>
+    <t>CU-21</t>
+  </si>
+  <si>
+    <t>CU-22</t>
+  </si>
+  <si>
+    <t>CU-23</t>
+  </si>
+  <si>
+    <t>CU-24</t>
+  </si>
+  <si>
+    <t>CU-25</t>
+  </si>
+  <si>
+    <t>CU-26</t>
+  </si>
+  <si>
+    <t>CU-27</t>
+  </si>
+  <si>
+    <t>CU-28</t>
+  </si>
+  <si>
+    <t>CU-29</t>
+  </si>
+  <si>
+    <t>CU-30</t>
+  </si>
+  <si>
+    <t>CU-31</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2770,6 +3193,27 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2925,30 +3369,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3300,49 +3720,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4933BB93-B296-45F8-A903-9D1E4601D37E}">
   <dimension ref="A1:V161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="33" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" customWidth="1"/>
     <col min="4" max="4" width="42.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="9" width="17.81640625" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" customWidth="1"/>
     <col min="11" max="11" width="14.08984375" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="24.81640625" customWidth="1"/>
-    <col min="14" max="16" width="15.7265625" customWidth="1"/>
+    <col min="14" max="15" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="19.26953125" customWidth="1"/>
     <col min="17" max="17" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="47.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
@@ -3366,7 +3786,7 @@
       <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="117" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="24" t="s">
@@ -3403,12 +3823,12 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
       <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="174">
+      <c r="C3" s="122">
         <v>45420</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -3420,7 +3840,7 @@
       <c r="F3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="118" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="37">
@@ -3433,22 +3853,22 @@
         <v>2</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="N3" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="P3" s="26" t="s">
         <v>293</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P3" s="175" t="s">
-        <v>307</v>
       </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="11"/>
@@ -3457,12 +3877,12 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
       <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="174">
+      <c r="C4" s="122">
         <v>45402</v>
       </c>
       <c r="D4" s="38" t="s">
@@ -3471,10 +3891,10 @@
       <c r="E4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="170" t="s">
+      <c r="G4" s="118" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="37">
@@ -3487,22 +3907,22 @@
         <v>1</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>293</v>
+        <v>418</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P4" s="175" t="s">
-        <v>309</v>
+        <v>449</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>295</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="11"/>
@@ -3511,12 +3931,12 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="174">
+      <c r="C5" s="122">
         <v>45402</v>
       </c>
       <c r="D5" s="38" t="s">
@@ -3525,10 +3945,10 @@
       <c r="E5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="168" t="s">
+      <c r="F5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="170" t="s">
+      <c r="G5" s="118" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="37">
@@ -3541,22 +3961,22 @@
         <v>1</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P5" s="175" t="s">
-        <v>308</v>
+        <v>450</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="11"/>
@@ -3570,7 +3990,7 @@
       <c r="B6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="171">
+      <c r="C6" s="119">
         <v>45402</v>
       </c>
       <c r="D6" s="38" t="s">
@@ -3579,10 +3999,10 @@
       <c r="E6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="168" t="s">
+      <c r="F6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="170" t="s">
+      <c r="G6" s="118" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="37">
@@ -3595,22 +4015,22 @@
         <v>1</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>293</v>
+        <v>420</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P6" s="175" t="s">
-        <v>310</v>
+        <v>451</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>296</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="11"/>
@@ -3624,7 +4044,7 @@
       <c r="B7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="171">
+      <c r="C7" s="119">
         <v>45402</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -3636,7 +4056,7 @@
       <c r="F7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="118" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="37">
@@ -3649,22 +4069,22 @@
         <v>1</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>293</v>
+        <v>421</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P7" s="175" t="s">
-        <v>311</v>
+        <v>452</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>297</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="11"/>
@@ -3678,7 +4098,7 @@
       <c r="B8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="172">
+      <c r="C8" s="120">
         <v>45402</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -3690,7 +4110,7 @@
       <c r="F8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="170" t="s">
+      <c r="G8" s="118" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="37">
@@ -3703,22 +4123,22 @@
         <v>1</v>
       </c>
       <c r="K8" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="P8" s="26" t="s">
         <v>298</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P8" s="175" t="s">
-        <v>312</v>
       </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="11"/>
@@ -3727,12 +4147,12 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="173">
+      <c r="C9" s="121">
         <v>45402</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -3757,22 +4177,22 @@
         <v>1</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>298</v>
+        <v>361</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>293</v>
+        <v>423</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P9" s="175" t="s">
-        <v>313</v>
+        <v>454</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>299</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="R9" s="11"/>
@@ -3781,12 +4201,12 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171">
+      <c r="C10" s="119">
         <v>45402</v>
       </c>
       <c r="D10" s="42" t="s">
@@ -3811,22 +4231,22 @@
         <v>1</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>293</v>
+        <v>424</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P10" s="175" t="s">
-        <v>314</v>
+        <v>455</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="11"/>
@@ -3835,12 +4255,12 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="171">
+      <c r="C11" s="119">
         <v>45402</v>
       </c>
       <c r="D11" s="44" t="s">
@@ -3865,22 +4285,22 @@
         <v>1</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P11" s="175" t="s">
-        <v>315</v>
+        <v>456</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>301</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="11"/>
@@ -3894,7 +4314,7 @@
       <c r="B12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="173">
+      <c r="C12" s="121">
         <v>45402</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -3919,22 +4339,22 @@
         <v>1</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="M12" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="P12" s="26" t="s">
         <v>302</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P12" s="175" t="s">
-        <v>316</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="11"/>
@@ -3948,7 +4368,7 @@
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="171">
+      <c r="C13" s="119">
         <v>45402</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -3973,22 +4393,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>294</v>
+        <v>427</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P13" s="175" t="s">
-        <v>317</v>
+        <v>458</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>303</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="11"/>
@@ -4002,7 +4422,7 @@
       <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="171">
+      <c r="C14" s="119">
         <v>45402</v>
       </c>
       <c r="D14" s="28" t="s">
@@ -4027,22 +4447,22 @@
         <v>1</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>298</v>
+        <v>409</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>294</v>
+        <v>428</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P14" s="175" t="s">
-        <v>318</v>
+        <v>459</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>304</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="11"/>
@@ -4056,7 +4476,7 @@
       <c r="B15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="171">
+      <c r="C15" s="119">
         <v>45402</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -4081,22 +4501,22 @@
         <v>1</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>294</v>
+        <v>429</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P15" s="175" t="s">
-        <v>319</v>
+        <v>460</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>305</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="11"/>
@@ -4110,7 +4530,7 @@
       <c r="B16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="121">
         <v>45402</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -4135,22 +4555,22 @@
         <v>1</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="L16" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="P16" s="26" t="s">
         <v>306</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P16" s="175" t="s">
-        <v>320</v>
       </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="11"/>
@@ -4164,7 +4584,7 @@
       <c r="B17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="173">
+      <c r="C17" s="121">
         <v>45402</v>
       </c>
       <c r="D17" s="28" t="s">
@@ -4189,22 +4609,22 @@
         <v>1</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>305</v>
+        <v>412</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>295</v>
+        <v>431</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P17" s="175" t="s">
-        <v>321</v>
+        <v>462</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="11"/>
@@ -4218,7 +4638,7 @@
       <c r="B18" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="121">
         <v>45402</v>
       </c>
       <c r="D18" s="28" t="s">
@@ -4243,22 +4663,22 @@
         <v>1</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P18" s="175" t="s">
-        <v>322</v>
+        <v>463</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="11"/>
@@ -4272,7 +4692,7 @@
       <c r="B19" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="174">
+      <c r="C19" s="122">
         <v>45402</v>
       </c>
       <c r="D19" s="28" t="s">
@@ -4297,22 +4717,22 @@
         <v>1</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>293</v>
+        <v>433</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P19" s="175" t="s">
-        <v>323</v>
+        <v>464</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>309</v>
       </c>
       <c r="Q19" s="23"/>
       <c r="R19" s="11"/>
@@ -4326,7 +4746,7 @@
       <c r="B20" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="174">
+      <c r="C20" s="122">
         <v>45402</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -4351,22 +4771,22 @@
         <v>1</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>293</v>
+        <v>434</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P20" s="175" t="s">
-        <v>324</v>
+        <v>465</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="Q20" s="23"/>
       <c r="R20" s="11"/>
@@ -4380,7 +4800,7 @@
       <c r="B21" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="174">
+      <c r="C21" s="122">
         <v>45402</v>
       </c>
       <c r="D21" s="28" t="s">
@@ -4405,22 +4825,22 @@
         <v>1</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>293</v>
+        <v>435</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P21" s="175" t="s">
-        <v>325</v>
+        <v>466</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>311</v>
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="11"/>
@@ -4434,7 +4854,7 @@
       <c r="B22" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="122">
         <v>45420</v>
       </c>
       <c r="D22" s="28" t="s">
@@ -4459,22 +4879,22 @@
         <v>2</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>296</v>
+        <v>436</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P22" s="175" t="s">
-        <v>326</v>
+        <v>467</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>312</v>
       </c>
       <c r="Q22" s="23"/>
       <c r="R22" s="11"/>
@@ -4488,7 +4908,7 @@
       <c r="B23" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="174">
+      <c r="C23" s="122">
         <v>45402</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -4513,22 +4933,22 @@
         <v>1</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>298</v>
+        <v>437</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P23" s="175" t="s">
-        <v>327</v>
+        <v>468</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="11"/>
@@ -4542,7 +4962,7 @@
       <c r="B24" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="174">
+      <c r="C24" s="122">
         <v>45420</v>
       </c>
       <c r="D24" s="28" t="s">
@@ -4567,22 +4987,22 @@
         <v>2</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>298</v>
+        <v>438</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P24" s="175" t="s">
-        <v>328</v>
+        <v>469</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>314</v>
       </c>
       <c r="Q24" s="23"/>
       <c r="R24" s="11"/>
@@ -4596,7 +5016,7 @@
       <c r="B25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="174">
+      <c r="C25" s="122">
         <v>45420</v>
       </c>
       <c r="D25" s="28" t="s">
@@ -4621,22 +5041,22 @@
         <v>2</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P25" s="175" t="s">
-        <v>329</v>
+        <v>470</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>315</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="11"/>
@@ -4650,7 +5070,7 @@
       <c r="B26" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="174">
+      <c r="C26" s="122">
         <v>45402</v>
       </c>
       <c r="D26" s="28" t="s">
@@ -4675,22 +5095,22 @@
         <v>1</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>293</v>
+        <v>440</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P26" s="175" t="s">
-        <v>330</v>
+        <v>471</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>316</v>
       </c>
       <c r="Q26" s="23"/>
       <c r="R26" s="11"/>
@@ -4704,7 +5124,7 @@
       <c r="B27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="174">
+      <c r="C27" s="122">
         <v>45420</v>
       </c>
       <c r="D27" s="28" t="s">
@@ -4729,22 +5149,22 @@
         <v>2</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>298</v>
+        <v>441</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P27" s="175" t="s">
-        <v>331</v>
+        <v>472</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="Q27" s="23"/>
       <c r="R27" s="11"/>
@@ -4758,7 +5178,7 @@
       <c r="B28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="173">
+      <c r="C28" s="121">
         <v>45402</v>
       </c>
       <c r="D28" s="28" t="s">
@@ -4783,22 +5203,22 @@
         <v>1</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>298</v>
+        <v>442</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P28" s="175" t="s">
-        <v>332</v>
+        <v>473</v>
+      </c>
+      <c r="P28" s="26" t="s">
+        <v>318</v>
       </c>
       <c r="Q28" s="23"/>
       <c r="R28" s="11"/>
@@ -4812,7 +5232,7 @@
       <c r="B29" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="173">
+      <c r="C29" s="121">
         <v>45420</v>
       </c>
       <c r="D29" s="28" t="s">
@@ -4837,22 +5257,22 @@
         <v>2</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>298</v>
+        <v>443</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P29" s="175" t="s">
-        <v>333</v>
+        <v>474</v>
+      </c>
+      <c r="P29" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="Q29" s="23"/>
       <c r="R29" s="11"/>
@@ -4866,7 +5286,7 @@
       <c r="B30" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="173">
+      <c r="C30" s="121">
         <v>45420</v>
       </c>
       <c r="D30" s="28" t="s">
@@ -4891,22 +5311,22 @@
         <v>2</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>298</v>
+        <v>444</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P30" s="175" t="s">
-        <v>334</v>
+        <v>475</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>320</v>
       </c>
       <c r="Q30" s="23"/>
       <c r="R30" s="11"/>
@@ -4920,7 +5340,7 @@
       <c r="B31" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="173">
+      <c r="C31" s="121">
         <v>45420</v>
       </c>
       <c r="D31" s="28" t="s">
@@ -4945,22 +5365,22 @@
         <v>2</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>298</v>
+        <v>405</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>298</v>
+        <v>445</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P31" s="175" t="s">
-        <v>335</v>
+        <v>476</v>
+      </c>
+      <c r="P31" s="26" t="s">
+        <v>321</v>
       </c>
       <c r="Q31" s="23"/>
       <c r="R31" s="11"/>
@@ -4974,7 +5394,7 @@
       <c r="B32" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="173">
+      <c r="C32" s="121">
         <v>45402</v>
       </c>
       <c r="D32" s="28" t="s">
@@ -4999,22 +5419,22 @@
         <v>1</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>298</v>
+        <v>446</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P32" s="175" t="s">
-        <v>336</v>
+        <v>477</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>322</v>
       </c>
       <c r="Q32" s="23"/>
       <c r="R32" s="11"/>
@@ -5023,12 +5443,12 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="173">
+      <c r="C33" s="121">
         <v>45402</v>
       </c>
       <c r="D33" s="113" t="s">
@@ -5053,22 +5473,22 @@
         <v>1</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>298</v>
+        <v>447</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P33" s="175" t="s">
-        <v>337</v>
+        <v>478</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>323</v>
       </c>
       <c r="Q33" s="23"/>
       <c r="R33" s="11"/>
@@ -7369,26 +7789,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
     </row>
     <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
@@ -8532,45 +8952,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="120"/>
-      <c r="B2" s="124" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
       <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="120"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="54" t="s">
         <v>149</v>
       </c>
@@ -8613,7 +9033,7 @@
       <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="120"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="47" t="s">
         <v>160</v>
       </c>
@@ -8640,7 +9060,7 @@
       <c r="O4" s="46"/>
     </row>
     <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="120"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="47" t="s">
         <v>165</v>
       </c>
@@ -8667,7 +9087,7 @@
       <c r="O5" s="46"/>
     </row>
     <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="120"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="47" t="s">
         <v>169</v>
       </c>
@@ -8694,7 +9114,7 @@
       <c r="O6" s="46"/>
     </row>
     <row r="7" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="120"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="47" t="s">
         <v>172</v>
       </c>
@@ -8725,7 +9145,7 @@
       <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="120"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="47" t="s">
         <v>177</v>
       </c>
@@ -8754,7 +9174,7 @@
       <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="120"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="47" t="s">
         <v>181</v>
       </c>
@@ -8781,7 +9201,7 @@
       <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="120"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="47" t="s">
         <v>184</v>
       </c>
@@ -8806,7 +9226,7 @@
       <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="120"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="47" t="s">
         <v>187</v>
       </c>
@@ -8835,20 +9255,20 @@
       <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
       <c r="O12" s="53"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -8900,45 +9320,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="47.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
     </row>
     <row r="2" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="133"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="140"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="60" t="s">
         <v>149</v>
       </c>
@@ -8978,10 +9398,10 @@
       <c r="N3" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="133"/>
+      <c r="O3" s="140"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="129"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
       <c r="D4" s="65"/>
@@ -8995,10 +9415,10 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
       <c r="N4" s="68"/>
-      <c r="O4" s="133"/>
+      <c r="O4" s="140"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="129"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="65"/>
@@ -9012,10 +9432,10 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
-      <c r="O5" s="133"/>
+      <c r="O5" s="140"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="129"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
       <c r="D6" s="65"/>
@@ -9029,10 +9449,10 @@
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
       <c r="N6" s="68"/>
-      <c r="O6" s="133"/>
+      <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="129"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="63"/>
       <c r="C7" s="64"/>
       <c r="D7" s="65"/>
@@ -9046,10 +9466,10 @@
       <c r="L7" s="67"/>
       <c r="M7" s="67"/>
       <c r="N7" s="68"/>
-      <c r="O7" s="133"/>
+      <c r="O7" s="140"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="129"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="63"/>
       <c r="C8" s="64"/>
       <c r="D8" s="65"/>
@@ -9063,10 +9483,10 @@
       <c r="L8" s="67"/>
       <c r="M8" s="67"/>
       <c r="N8" s="68"/>
-      <c r="O8" s="133"/>
+      <c r="O8" s="140"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="129"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
       <c r="D9" s="65"/>
@@ -9080,10 +9500,10 @@
       <c r="L9" s="67"/>
       <c r="M9" s="67"/>
       <c r="N9" s="68"/>
-      <c r="O9" s="133"/>
+      <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="129"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
       <c r="D10" s="65"/>
@@ -9097,10 +9517,10 @@
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
       <c r="N10" s="68"/>
-      <c r="O10" s="133"/>
+      <c r="O10" s="140"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="129"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
       <c r="D11" s="65"/>
@@ -9114,7 +9534,7 @@
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
       <c r="N11" s="68"/>
-      <c r="O11" s="133"/>
+      <c r="O11" s="140"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
@@ -9169,45 +9589,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="47.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
     </row>
     <row r="2" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="136"/>
-      <c r="B2" s="137" t="s">
+      <c r="A2" s="143"/>
+      <c r="B2" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="141"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="148"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
+      <c r="A3" s="143"/>
       <c r="B3" s="71" t="s">
         <v>149</v>
       </c>
@@ -9247,10 +9667,10 @@
       <c r="N3" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="141"/>
+      <c r="O3" s="148"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="136"/>
+      <c r="A4" s="143"/>
       <c r="B4" s="74"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
@@ -9264,10 +9684,10 @@
       <c r="L4" s="78"/>
       <c r="M4" s="78"/>
       <c r="N4" s="79"/>
-      <c r="O4" s="141"/>
+      <c r="O4" s="148"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="136"/>
+      <c r="A5" s="143"/>
       <c r="B5" s="74"/>
       <c r="C5" s="75"/>
       <c r="D5" s="76"/>
@@ -9281,10 +9701,10 @@
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
       <c r="N5" s="79"/>
-      <c r="O5" s="141"/>
+      <c r="O5" s="148"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="136"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="74"/>
       <c r="C6" s="75"/>
       <c r="D6" s="76"/>
@@ -9298,10 +9718,10 @@
       <c r="L6" s="78"/>
       <c r="M6" s="78"/>
       <c r="N6" s="79"/>
-      <c r="O6" s="141"/>
+      <c r="O6" s="148"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="136"/>
+      <c r="A7" s="143"/>
       <c r="B7" s="74"/>
       <c r="C7" s="75"/>
       <c r="D7" s="76"/>
@@ -9315,10 +9735,10 @@
       <c r="L7" s="78"/>
       <c r="M7" s="78"/>
       <c r="N7" s="79"/>
-      <c r="O7" s="141"/>
+      <c r="O7" s="148"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="136"/>
+      <c r="A8" s="143"/>
       <c r="B8" s="74"/>
       <c r="C8" s="75"/>
       <c r="D8" s="76"/>
@@ -9332,10 +9752,10 @@
       <c r="L8" s="78"/>
       <c r="M8" s="78"/>
       <c r="N8" s="79"/>
-      <c r="O8" s="141"/>
+      <c r="O8" s="148"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="136"/>
+      <c r="A9" s="143"/>
       <c r="B9" s="74"/>
       <c r="C9" s="75"/>
       <c r="D9" s="76"/>
@@ -9349,10 +9769,10 @@
       <c r="L9" s="78"/>
       <c r="M9" s="78"/>
       <c r="N9" s="79"/>
-      <c r="O9" s="141"/>
+      <c r="O9" s="148"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="136"/>
+      <c r="A10" s="143"/>
       <c r="B10" s="74"/>
       <c r="C10" s="75"/>
       <c r="D10" s="76"/>
@@ -9366,10 +9786,10 @@
       <c r="L10" s="78"/>
       <c r="M10" s="78"/>
       <c r="N10" s="79"/>
-      <c r="O10" s="141"/>
+      <c r="O10" s="148"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="136"/>
+      <c r="A11" s="143"/>
       <c r="B11" s="74"/>
       <c r="C11" s="75"/>
       <c r="D11" s="76"/>
@@ -9383,23 +9803,23 @@
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
       <c r="N11" s="79"/>
-      <c r="O11" s="141"/>
+      <c r="O11" s="148"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="140"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
       <c r="O12" s="70"/>
     </row>
   </sheetData>
@@ -9439,45 +9859,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="47.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
     </row>
     <row r="2" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="144"/>
-      <c r="B2" s="145" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="149"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="156"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="144"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="82" t="s">
         <v>149</v>
       </c>
@@ -9517,10 +9937,10 @@
       <c r="N3" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="149"/>
+      <c r="O3" s="156"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="144"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="85"/>
       <c r="C4" s="86"/>
       <c r="D4" s="87"/>
@@ -9534,10 +9954,10 @@
       <c r="L4" s="89"/>
       <c r="M4" s="89"/>
       <c r="N4" s="90"/>
-      <c r="O4" s="149"/>
+      <c r="O4" s="156"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="144"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="85"/>
       <c r="C5" s="86"/>
       <c r="D5" s="87"/>
@@ -9551,10 +9971,10 @@
       <c r="L5" s="89"/>
       <c r="M5" s="89"/>
       <c r="N5" s="90"/>
-      <c r="O5" s="149"/>
+      <c r="O5" s="156"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="144"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="85"/>
       <c r="C6" s="86"/>
       <c r="D6" s="87"/>
@@ -9568,10 +9988,10 @@
       <c r="L6" s="89"/>
       <c r="M6" s="89"/>
       <c r="N6" s="90"/>
-      <c r="O6" s="149"/>
+      <c r="O6" s="156"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="144"/>
+      <c r="A7" s="151"/>
       <c r="B7" s="85"/>
       <c r="C7" s="86"/>
       <c r="D7" s="87"/>
@@ -9585,10 +10005,10 @@
       <c r="L7" s="89"/>
       <c r="M7" s="89"/>
       <c r="N7" s="90"/>
-      <c r="O7" s="149"/>
+      <c r="O7" s="156"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="144"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="85"/>
       <c r="C8" s="86"/>
       <c r="D8" s="87"/>
@@ -9602,10 +10022,10 @@
       <c r="L8" s="89"/>
       <c r="M8" s="89"/>
       <c r="N8" s="90"/>
-      <c r="O8" s="149"/>
+      <c r="O8" s="156"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="144"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="85"/>
       <c r="C9" s="86"/>
       <c r="D9" s="87"/>
@@ -9619,10 +10039,10 @@
       <c r="L9" s="89"/>
       <c r="M9" s="89"/>
       <c r="N9" s="90"/>
-      <c r="O9" s="149"/>
+      <c r="O9" s="156"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="144"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="85"/>
       <c r="C10" s="86"/>
       <c r="D10" s="87"/>
@@ -9636,10 +10056,10 @@
       <c r="L10" s="89"/>
       <c r="M10" s="89"/>
       <c r="N10" s="90"/>
-      <c r="O10" s="149"/>
+      <c r="O10" s="156"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="144"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="85"/>
       <c r="C11" s="86"/>
       <c r="D11" s="87"/>
@@ -9653,23 +10073,23 @@
       <c r="L11" s="89"/>
       <c r="M11" s="89"/>
       <c r="N11" s="90"/>
-      <c r="O11" s="149"/>
+      <c r="O11" s="156"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="148"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
       <c r="O12" s="81"/>
     </row>
   </sheetData>
@@ -9709,45 +10129,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
     </row>
     <row r="2" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153" t="s">
+      <c r="A2" s="159"/>
+      <c r="B2" s="160" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="163"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="152"/>
+      <c r="A3" s="159"/>
       <c r="B3" s="99" t="s">
         <v>149</v>
       </c>
@@ -9787,10 +10207,10 @@
       <c r="N3" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="156"/>
+      <c r="O3" s="163"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="152"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="92"/>
       <c r="C4" s="93"/>
       <c r="D4" s="94"/>
@@ -9804,10 +10224,10 @@
       <c r="L4" s="96"/>
       <c r="M4" s="96"/>
       <c r="N4" s="97"/>
-      <c r="O4" s="156"/>
+      <c r="O4" s="163"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="152"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="92"/>
       <c r="C5" s="93"/>
       <c r="D5" s="94"/>
@@ -9821,10 +10241,10 @@
       <c r="L5" s="96"/>
       <c r="M5" s="96"/>
       <c r="N5" s="97"/>
-      <c r="O5" s="156"/>
+      <c r="O5" s="163"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="152"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="92"/>
       <c r="C6" s="93"/>
       <c r="D6" s="94"/>
@@ -9838,10 +10258,10 @@
       <c r="L6" s="96"/>
       <c r="M6" s="96"/>
       <c r="N6" s="97"/>
-      <c r="O6" s="156"/>
+      <c r="O6" s="163"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="152"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
       <c r="D7" s="94"/>
@@ -9855,10 +10275,10 @@
       <c r="L7" s="96"/>
       <c r="M7" s="96"/>
       <c r="N7" s="97"/>
-      <c r="O7" s="156"/>
+      <c r="O7" s="163"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="152"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="94"/>
@@ -9872,10 +10292,10 @@
       <c r="L8" s="96"/>
       <c r="M8" s="96"/>
       <c r="N8" s="97"/>
-      <c r="O8" s="156"/>
+      <c r="O8" s="163"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="152"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="92"/>
       <c r="C9" s="93"/>
       <c r="D9" s="94"/>
@@ -9889,10 +10309,10 @@
       <c r="L9" s="96"/>
       <c r="M9" s="96"/>
       <c r="N9" s="97"/>
-      <c r="O9" s="156"/>
+      <c r="O9" s="163"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="152"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="92"/>
       <c r="C10" s="93"/>
       <c r="D10" s="94"/>
@@ -9906,10 +10326,10 @@
       <c r="L10" s="96"/>
       <c r="M10" s="96"/>
       <c r="N10" s="97"/>
-      <c r="O10" s="156"/>
+      <c r="O10" s="163"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="152"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="92"/>
       <c r="C11" s="93"/>
       <c r="D11" s="94"/>
@@ -9923,24 +10343,24 @@
       <c r="L11" s="96"/>
       <c r="M11" s="96"/>
       <c r="N11" s="97"/>
-      <c r="O11" s="156"/>
+      <c r="O11" s="163"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="157"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9979,45 +10399,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="47.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="165" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="160"/>
-      <c r="B2" s="161" t="s">
+      <c r="A2" s="167"/>
+      <c r="B2" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="165"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="172"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="160"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="103" t="s">
         <v>149</v>
       </c>
@@ -10057,10 +10477,10 @@
       <c r="N3" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="165"/>
+      <c r="O3" s="172"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="160"/>
+      <c r="A4" s="167"/>
       <c r="B4" s="106"/>
       <c r="C4" s="107"/>
       <c r="D4" s="108"/>
@@ -10074,10 +10494,10 @@
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
       <c r="N4" s="111"/>
-      <c r="O4" s="165"/>
+      <c r="O4" s="172"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="160"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="106"/>
       <c r="C5" s="107"/>
       <c r="D5" s="108"/>
@@ -10091,10 +10511,10 @@
       <c r="L5" s="110"/>
       <c r="M5" s="110"/>
       <c r="N5" s="111"/>
-      <c r="O5" s="165"/>
+      <c r="O5" s="172"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="160"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="106"/>
       <c r="C6" s="107"/>
       <c r="D6" s="108"/>
@@ -10108,10 +10528,10 @@
       <c r="L6" s="110"/>
       <c r="M6" s="110"/>
       <c r="N6" s="111"/>
-      <c r="O6" s="165"/>
+      <c r="O6" s="172"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="160"/>
+      <c r="A7" s="167"/>
       <c r="B7" s="106"/>
       <c r="C7" s="107"/>
       <c r="D7" s="108"/>
@@ -10125,10 +10545,10 @@
       <c r="L7" s="110"/>
       <c r="M7" s="110"/>
       <c r="N7" s="111"/>
-      <c r="O7" s="165"/>
+      <c r="O7" s="172"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="160"/>
+      <c r="A8" s="167"/>
       <c r="B8" s="106"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -10142,10 +10562,10 @@
       <c r="L8" s="110"/>
       <c r="M8" s="110"/>
       <c r="N8" s="111"/>
-      <c r="O8" s="165"/>
+      <c r="O8" s="172"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="160"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -10159,10 +10579,10 @@
       <c r="L9" s="110"/>
       <c r="M9" s="110"/>
       <c r="N9" s="111"/>
-      <c r="O9" s="165"/>
+      <c r="O9" s="172"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="160"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -10176,10 +10596,10 @@
       <c r="L10" s="110"/>
       <c r="M10" s="110"/>
       <c r="N10" s="111"/>
-      <c r="O10" s="165"/>
+      <c r="O10" s="172"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="160"/>
+      <c r="A11" s="167"/>
       <c r="B11" s="106"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -10193,23 +10613,23 @@
       <c r="L11" s="110"/>
       <c r="M11" s="110"/>
       <c r="N11" s="111"/>
-      <c r="O11" s="165"/>
+      <c r="O11" s="172"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="164"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
       <c r="O12" s="102"/>
     </row>
   </sheetData>
@@ -10243,16 +10663,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="173" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="173" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
     </row>
     <row r="3" spans="2:26" ht="58" x14ac:dyDescent="0.35">
       <c r="B3">
